--- a/不思議のダンジョンFinal/Roguelike/csv/Actor/Player/Player.xlsx
+++ b/不思議のダンジョンFinal/Roguelike/csv/Actor/Player/Player.xlsx
@@ -24,13 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+  <si>
+    <t>int</t>
+  </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
+    <t xml:space="preserve">name </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -38,6 +45,356 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>hit_point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_hit_point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>experience_point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>command_card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arts_card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arts_attack_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quick_card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buster_card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buster_attack_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noble_phantasm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max_noble_phantasm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attack_rise_NP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defence_rise_NP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>turn_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quick_attack_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keep_star</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKITA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noble_weapon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再臨</t>
+    <rPh sb="0" eb="2">
+      <t>サイリン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大体力</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力の最大値</t>
+    <rPh sb="0" eb="1">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動回数</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スター発生率</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スター保持数</t>
+    <rPh sb="3" eb="5">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドカード枚数</t>
+    <rPh sb="7" eb="9">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーツの枚数</t>
+    <rPh sb="4" eb="6">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーツの攻撃ヒット数</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイックの枚数</t>
+    <rPh sb="5" eb="7">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイックの攻撃ヒット数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスターの枚数</t>
+    <rPh sb="5" eb="7">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスターの攻撃ヒット数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝具</t>
+    <rPh sb="0" eb="1">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>グ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NP最大値</t>
+    <rPh sb="2" eb="5">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃時のNP効率</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメのNP効率</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過ターン</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の幅</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の高さ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saint_graph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>star_generator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素の攻撃力</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素の防御力</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>attack</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -46,31 +403,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hit_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max_hit_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>turn_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>experience_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>powe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max_power</t>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おなか</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -78,34 +415,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>noble_phantasm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max_noble_phantasm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>char*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Okita</t>
+    <t>エクストラアタック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extra_attack</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,175 +784,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" customWidth="1"/>
+    <col min="18" max="18" width="12.296875" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="20" max="20" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.19921875" customWidth="1"/>
+    <col min="25" max="25" width="18.296875" customWidth="1"/>
+    <col min="26" max="26" width="16.09765625" customWidth="1"/>
+    <col min="27" max="27" width="19.296875" customWidth="1"/>
+    <col min="28" max="28" width="14.296875" customWidth="1"/>
+    <col min="29" max="29" width="14.796875" customWidth="1"/>
+    <col min="30" max="30" width="15.8984375" customWidth="1"/>
+    <col min="31" max="31" width="10.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AE2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>100</v>
+      </c>
+      <c r="AB4">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="AC4">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3">
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>30</v>
       </c>
-      <c r="Q3">
+      <c r="AG4">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>